--- a/2.Python/WebCrawler/Excel/data/TEMP_CRAWLING.xlsx
+++ b/2.Python/WebCrawler/Excel/data/TEMP_CRAWLING.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="10995"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="10995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="197">
   <si>
     <t>[[' 서울특별시 종로구']]</t>
   </si>
@@ -286,6 +286,329 @@
   </si>
   <si>
     <t>{'업체명': '한국의료지원재단', '주소': '서울 중구 남대문로10길 9 경기빌딩', '홈페이지': 'http://komaf12.org/', '팩스번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'업체명': '한국생명존중희망재단', '주소': '서울 중구 을지로 6', '홈페이지': 'http://kfsp.org', '팩스번호': 'FAX. (사업총괄본부) 02-3706-0400, (정책지원본부) 02-3706-0401, (자살예방교육부) 02-3706-0402, (자살예방홍보부) </t>
+  </si>
+  <si>
+    <t>02-3706-0403'}</t>
+  </si>
+  <si>
+    <t>{'업체명': '열매나눔재단', '주소': '서울 중구 퇴계로20길 37', '홈페이지': 'http://www.merryyear.org/', '팩스번</t>
+  </si>
+  <si>
+    <t>호': 'TEL : 02-310-9508 / FAX : 02-310-9504\nE-mail : csmerry@merryyear.org'}</t>
+  </si>
+  <si>
+    <t>{'업체명': '계영복지재단', '주소': '서울 성북구 동소문로 306', '홈페이지': 'http://kehyoung.co.kr/', '팩스번호</t>
+  </si>
+  <si>
+    <t>': '팩스: 02-2057-2295'}</t>
+  </si>
+  <si>
+    <t>{'업체명': '대한불교조계종사회복지재단', '주소': '서울 종로구 우정국로 67', '홈페이지': 'http://jabinanum.or.kr/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '하나금융나눔재단', '주소': '서울 중구 다동길 43', '홈페이지': 'http://www.hana-nanum.org/', '팩스</t>
+  </si>
+  <si>
+    <t>번호': ' '}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'업체명': '다일복지재단', '주소': '서울 동대문구 서울시립대로 57 다일복지재단', '홈페이지': ' ', '팩스번호': </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'업체명': '사회복지법인감리회태화복지재단', '주소': '서울 종로구 인사동5길 29', '홈페이지': 'http://www.taiwhafound.org/', '팩스번호': '서울시 종로구 인사동5길 29 태화빌딩 2층 TEL : 02-733-9597 FAX : 02-733-3889'}      </t>
+  </si>
+  <si>
+    <t>{'업체명': '각당복지재단', '주소': '서울 종로구 경희궁1길 29', '홈페이지': 'http://www.kakdang.or.kr/', '팩스</t>
+  </si>
+  <si>
+    <t>{'업체명': '동아꿈나무재단', '주소': '서울 서대문구 충정로 29 (주)동아일보사', '홈페이지': 'http://www.dkf.or.kr/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '재단법인 우체국공익재단', '주소': '서울 종로구 송월1길 73-10', '홈페이지': 'http://www.kopf.or.kr/', '팩스번호': '대표전화 : 02-725-3850  팩스 : 02-725-3849 '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '천태종복지재단', '주소': '서울 종로구 삼일대로 461 102동, 306호', '홈페이지': 'http://www.with99.org/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '연동복지재단', '주소': '서울 종로구 대학로3길 9 가나의집 5층 503호 연동복지재단', '홈페이지': ' ', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': 'KT&amp;G복지재단중부복지센터', '주소': '서울 중구 서소문로 22', '홈페이지': ' ', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': 'IBK행복나눔재단', '주소': '서울 중구 을지로 79', '홈페이지': 'http://www.ibkfoundation.or.kr/', '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">팩스번호': '(재)IBK행복나눔재단 | 서울시 중구 을지로79 ㅣ 대표전화 : 02-3789-3984 ㅣ FAX : 02-3789-3986'}     </t>
+  </si>
+  <si>
+    <t>{'업체명': '보령중보재단', '주소': '서울 종로구 창경궁로 136 보령빌딩', '홈페이지': 'http://www.boryungjungbo.or.kr/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '국민사회복지협회', '주소': '서울 중구 서소문로 89-20 동양빌딩 B동 4층', '홈페이지': 'http://knswa.org/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '평원재단', '주소': '서울 종로구 혜화로9길 12', '홈페이지': ' ', '팩스번호': ' '}  '홈페이지': 'htt</t>
+  </si>
+  <si>
+    <t>{'업체명': '진각복지재단', '주소': '서울 성북구 화랑로13길 17', '홈페이지': 'http://www.jgo.opck.or.kr/', '팩r.kr/', '팩스번호': '서울특별시 성북구 화랑로 13길 17 전화번호 : 02) 942-0144~5 팩스 : 02) 942-0146 E-mail : 029420144@hanmail.net\nCOPYRIGHT (C) 사회복지법인 진각복지재단, ALL RIGHTS REr.kr/', '팩스번호SERVED.'}                                                                                    29420144@hanmail.</t>
+  </si>
+  <si>
+    <t>{'업체명': '웅진재단', '주소': '서울 종로구 새문안로 92 광화문오피시아빌딩 15층', '홈페이지': 'http://www.wjf.kr/', '팩스번호': ' '}                                                       'http://www.wjf.</t>
+  </si>
+  <si>
+    <t>{'업체명': '생명문화재단', '주소': '서울 중구 장충단로6길 15', '홈페이지': ' ', '팩스번호': ' '}                                                                                           '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '정인욱복지재단', '주소': '서울 종로구 사직로8길 34', '홈페이지': 'http://www.chungiw-hsf.or.kr/', giw-hsf.or.kr/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '골든써클재단', '주소': '서울 종로구 율곡로 190 여전도회관', '홈페이지': 'http://www.gcfkorea.org/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '양현재단', '주소': '서울 종로구 북촌로12길 21', '홈페이지': 'http://www.yanghyun.org/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'업체명': '한국새생명복지재단', '주소': '서울 성북구 삼선교로24길 55 부영빌딩', '홈페이지': </t>
+  </si>
+  <si>
+    <t>'http://www.koreassm.org/', '팩스번호': '팩스 :'}</t>
+  </si>
+  <si>
+    <t>{'업체명': '건양복지', '주소': '서울 중구 장충단로 226 케이와이 헤리티지 호텔', '홈페이지': 'http://www.keonyang.org/', '팩스번호': '팩스: 02-902-3333'}</t>
+  </si>
+  <si>
+    <t>{'업체명': '사회복지법인닮복지재단', '주소': '서울 강북구 솔샘로65길 43 그린하우스', '홈페이</t>
+  </si>
+  <si>
+    <t>지': 'http://www.darmbokji.org/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '어린이재단 서울가정위탁지원센터', '주소': '서울 중구 무교로 20 어린이재단 빌딩 3</t>
+  </si>
+  <si>
+    <t>층', '홈페이지': 'http://www.seoul-foster.or.kr/', '팩스번호': 'Fax : 02)325-2664'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'업체명': '영락사회복지재단', '주소': '서울 중구 수표로 28', '홈페이지': 'http://www.ynswf.co.kr/', '팩스번호': '영락사회복지재단      대표자 : 박남진      대표전화 : 02-2265-7023      </t>
+  </si>
+  <si>
+    <t>팩스 : 02-2277-5855\n주소 : 서울시 중구 수표로 28 보아스 501호      사업자등록번호 : 202-82-30130      이메일 : ynswf@naver.com'}</t>
+  </si>
+  <si>
+    <t>{'업체명': '세종마을푸르메센터', '주소': '서울 종로구 자하문로 89', '홈페이지': 'http://www.purme.org/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'업체명': '서울시50플러스 서부캠퍼스', '주소': '서울 은평구 통일로62길 7', '홈페이지': ' ', </t>
+  </si>
+  <si>
+    <t>{'업체명': 'KT&amp;G복지재단 북부복지센터', '주소': '서울 강북구 수유로 50 젬스톤타워', '홈페이지</t>
+  </si>
+  <si>
+    <t>': 'http://www.ktngwelfare.org/welfare/welfare_02.asp', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '여전도회작은자복지재단', '주소': '서울 종로구 율곡로 190', '홈페이지': ' ', '팩스</t>
+  </si>
+  <si>
+    <t>{'업체명': '서울복지재단 장애인전환서비스지원센터', '주소': '서울 서대문구 통일로 135 충정빌</t>
+  </si>
+  <si>
+    <t>딩', '홈페이지': 'http://happy.welfare.seoul.kr/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '김남호복지재단', '주소': '서울 중구 명동길 74', '홈페이지': ' ', '팩스번호': ' '}{'업체명': '콘라드 아데나워 재단', '주소': '서울 종로구 창덕궁1길 13 원서빌딩 2층', '홈페이지</t>
+  </si>
+  <si>
+    <t>': ' ', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '우리모두복지재단 선하어린이집', '주소': '서울 서대문구 북아현로4자길 31', '홈페이</t>
+  </si>
+  <si>
+    <t>지': ' ', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '구세군복지재단홍은종합사회복지관홍제동별관', '주소': '서울 서대문구 세검정로 71', '홈페이지': ' ', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '다정한사람들복지재단', '주소': '서울 종로구 종로9길 8', '홈페이지': ' ', '팩스번</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'업체명': '선암사회복지재단', '주소': '서울 종로구 성균관로 65', '홈페이지': 'http://www.sunam.net/', '팩스번호': '주소 (03070) 서울특별시 종로구 성균관로 65 (구.서울특별시 종로구 명륜 </t>
+  </si>
+  <si>
+    <t>동1가 10-1) 고객센터:02-745-1932 팩스:02-744-0496\n사업자 번호 : 208-82-03795 상호 : 선암사회</t>
+  </si>
+  <si>
+    <t>복지재단 대표 : 황갑성'}</t>
+  </si>
+  <si>
+    <t>{'업체명': '사회복지법인애원복지재단', '주소': '서울 중구 서애로 17', '홈페이지': ' ', '팩스</t>
+  </si>
+  <si>
+    <t>{'업체명': '유엔한국평화복지재단', '주소': '서울 성북구 동소문로 69 동문빌딩', '홈페이지': 'http://www.unipwa.net/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '우체국한사랑의집', '주소': '서울 종로구 대학로5길 27 우체국한사랑의집', '홈페이지</t>
+  </si>
+  <si>
+    <t>{'업체명': '한국소아암재단', '주소': '서울 중구 중림로 47-1', '홈페이지': 'http://www.angelc.or.kr/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'업체명': '참좋은나눔재단', '주소': '서울 서대문구 통일로 371 서강빌딩 4층 참좋은나눔재단', </t>
+  </si>
+  <si>
+    <t>'홈페이지': 'http://charmnanum.org', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'업체명': '노인의료나눔재단', '주소': '서울 중구 통일로 86 바비엥3차 7F 701호', '홈페이지': </t>
+  </si>
+  <si>
+    <t>'http://www.ok6595.or.kr/', '팩스번호': 'FAX'}</t>
+  </si>
+  <si>
+    <t>{'업체명': '사회복지법인어린이재단', '주소': '서울 중구 무교로 20', '홈페이지': ' ', '팩스번</t>
+  </si>
+  <si>
+    <t>{'업체명': '무지개청소년센터', '주소': '서울 종로구 자하문로24길 20', '홈페이지': ' ', '팩스</t>
+  </si>
+  <si>
+    <t>{'업체명': '재단법인 동천', '주소': '서울 종로구 우정국로 26 센트로폴리스빌딩 b동 10층', '홈</t>
+  </si>
+  <si>
+    <t>페이지': 'http://www.bkl.or.kr/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '한마음한몸운동본부', '주소': '서울 중구 명동길 66', '홈페이지': 'http://www.obos.or.kr/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '대산문화재단', '주소': '서울 종로구 종로 1 교보생명빌딩', '홈페이지': 'http://www.daesan.or.kr/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'업체명': '아름다운동행', '주소': '서울 종로구 인사동11길 22 다연 2층', '홈페이지': 'http://www.dreaminus.org/', '팩스번호': '이용약관\n개인정보처리방침\n이메일주소무단수집거부\n문의하 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">기\n저작권 정책\n국세청\n행정안전부\n재단법인 아름다운동행 03145 서울시 종로구 우정국로 55 ( </t>
+  </si>
+  <si>
+    <t xml:space="preserve">견지동)\n대표자 이규정   사업자등록번호 101-82-17154\n전화 02) 737-9595   팩스 02) 737-9195  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이메일 thenanum@hanmail.net'}</t>
+  </si>
+  <si>
+    <t>{'업체명': '한국의료지원재단', '주소': '서울 중구 남대문로10길 9 경기빌딩', '홈페이지': 'http://komaf12.org/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '사회복지법인 한국노인생활지원재단', '주소': '서울 동대문구 천호대로 17', '홈페이</t>
+  </si>
+  <si>
+    <t>지': 'http://www.hid081.co.kr/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '어린이재단 서울지역본부', '주소': '서울 중구 무교로 20 어린이재단빌딩 3층', '홈페</t>
+  </si>
+  <si>
+    <t>이지': ' ', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '재단법인 신용카드사회공헌재단', '주소': '서울 중구 다동길 43 한외빌딩 11층', '홈</t>
+  </si>
+  <si>
+    <t>페이지': 'http://www.ccfd.or.kr/main/main.html', '팩스번호': '팩스 : 02-2135-1837'}</t>
+  </si>
+  <si>
+    <t>{'업체명': '동숭학술재단', '주소': '서울 종로구 동숭3길 27', '홈페이지': ' ', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '내고장사랑재단', '주소': '서울 종로구 율곡로2길 7 로얄팰리스', '홈페이지': 'http://www.myhomelove.or.kr/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '베스티안재단 사회복지사업본부', '주소': '서울 성동구 왕십리로 382 1층', '홈페이지</t>
+  </si>
+  <si>
+    <t>': 'http://ibestian.org/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '에이드투더처치인니드코리아', '주소': '서울 중구 명동길 66', '홈페이지': 'http://www.churchinneed.or.kr/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '기독교청년회유지재단', '주소': '서울 종로구 종로 69', '홈페이지': ' ', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '세계평화나눔재단', '주소': '서울 종로구 새문안로 92 광화문오피시아빌딩', '홈페이</t>
+  </si>
+  <si>
+    <t>지': 'http://unpsf.co.kr/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '국제밝은사회재단', '주소': '서울 종로구 성균관로15가길 38', '홈페이지': ' ', '팩</t>
+  </si>
+  <si>
+    <t>{'업체명': '삼선배움과나눔재단', '주소': '서울 중구 퇴계로 36 삼선빌딩', '홈페이지': 'http://www.sscare.or.kr/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'업체명': '사단법인 웨슬리나눔재단', '주소': '서울 종로구 세종대로 149 16층', '홈페이지': ' </t>
+  </si>
+  <si>
+    <t>', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'업체명': '국제나눔재단', '주소': '서울 종로구 삼일대로 469 서원빌딩 15층', '홈페이지': 'https://innf.co.kr/', '팩스번호': 'Tel. 02-723-5400 | Fax. 02-735-4500 | innf21@daum.net\n주소. </t>
+  </si>
+  <si>
+    <t>서울시 종로구 삼일대로 469, 서원빌딩 15층 ㅣ 고유번호. 306-82-69048'}</t>
+  </si>
+  <si>
+    <t>{'업체명': '어린이재단 서울남부지역본부', '주소': '서울 중구 무교로 20 어린이재단', '홈페이지</t>
+  </si>
+  <si>
+    <t>{'업체명': '국제나눔재단', '주소': '서울 성북구 창경궁로 325', '홈페이지': 'http://internationalnanum.com/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '재단법인 통일아동키크기재단', '주소': '서울 마포구 와우산로 121', '홈페이지': 'http://www.unigrow.or.kr/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '재단법인 동국장학회', '주소': '서울 종로구 인사동7길 12 백상빌딩 302호', '홈페이</t>
+  </si>
+  <si>
+    <t>지': 'http://dongguk.or.kr', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '진실의 힘', '주소': '서울 중구 세종대로19길 16', '홈페이지': 'http://www.truthfoundation.or.kr/', '팩스번호': 'Fax'}</t>
+  </si>
+  <si>
+    <t>{'업체명': '서비스포피스', '주소': '서울 서대문구 성산로 527 하늬솔빌딩', '홈페이지': 'http://www.sfp.or.kr/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '사회복지법인인덕원', '주소': '서울 은평구 서오릉로 30-17', '홈페이지': ' ', '팩스</t>
+  </si>
+  <si>
+    <t>{'업체명': '한음문화재단', '주소': '서울 서대문구 충정로 76', '홈페이지': 'http://www.hecf.or.kr/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '평화의 길 국제재단', '주소': '서울 종로구 새문안로 42', '홈페이지': 'http://road1004.onmam.com/', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '식량나눔재단', '주소': '서울 서대문구 이화여대5길 15', '홈페이지': 'http://foodnanum.org/', '팩스번호': '서울특별시 중구 을지로 218, 421-2호 / FAX 050-2393-3333'}</t>
+  </si>
+  <si>
+    <t>{'업체명': '동승문화재단', '주소': '서울 종로구 청계천로 279', '홈페이지': ' ', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '국내장학문화재단', '주소': '서울 종로구 종로1길 36', '홈페이지': ' ', '팩스번호': ' '}</t>
+  </si>
+  <si>
+    <t>{'업체명': '한국예술인복지재단', '주소': '서울 종로구 이화장길 70-15 소호빌딩 1층', '홈페이지': 'http://www.kawf.kr/', '팩스번호': ''}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'업체명': '마포복지재단', '주소': '서울 마포구 대흥로24길 50 1층', '홈페이지': 'http://www.mapowf.or.kr', '팩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -638,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1140,12 +1463,730 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A143"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
